--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H2">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I2">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J2">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.2668186895293</v>
+        <v>1.455462333333333</v>
       </c>
       <c r="N2">
-        <v>1.2668186895293</v>
+        <v>4.366387</v>
       </c>
       <c r="O2">
-        <v>0.3343313307685932</v>
+        <v>0.2990078421312781</v>
       </c>
       <c r="P2">
-        <v>0.3343313307685932</v>
+        <v>0.2990078421312781</v>
       </c>
       <c r="Q2">
-        <v>0.4129841202006814</v>
+        <v>0.3152434383177777</v>
       </c>
       <c r="R2">
-        <v>0.4129841202006814</v>
+        <v>2.83719094486</v>
       </c>
       <c r="S2">
-        <v>0.09634361534362328</v>
+        <v>0.03824822467885609</v>
       </c>
       <c r="T2">
-        <v>0.09634361534362328</v>
+        <v>0.0382482246788561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H3">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I3">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J3">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.529239555083826</v>
+        <v>0.1041576666666667</v>
       </c>
       <c r="N3">
-        <v>0.529239555083826</v>
+        <v>0.312473</v>
       </c>
       <c r="O3">
-        <v>0.1396737877401368</v>
+        <v>0.02139798360848153</v>
       </c>
       <c r="P3">
-        <v>0.1396737877401368</v>
+        <v>0.02139798360848154</v>
       </c>
       <c r="Q3">
-        <v>0.1725326077348172</v>
+        <v>0.02255985621555556</v>
       </c>
       <c r="R3">
-        <v>0.1725326077348172</v>
+        <v>0.20303870594</v>
       </c>
       <c r="S3">
-        <v>0.04024952626691346</v>
+        <v>0.002737168627076849</v>
       </c>
       <c r="T3">
-        <v>0.04024952626691346</v>
+        <v>0.00273716862707685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H4">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I4">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J4">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.895745822132148</v>
+        <v>0.7055843333333334</v>
       </c>
       <c r="N4">
-        <v>0.895745822132148</v>
+        <v>2.116753</v>
       </c>
       <c r="O4">
-        <v>0.2363999641141402</v>
+        <v>0.1449541112262631</v>
       </c>
       <c r="P4">
-        <v>0.2363999641141402</v>
+        <v>0.1449541112262631</v>
       </c>
       <c r="Q4">
-        <v>0.2920140058986122</v>
+        <v>0.1528248627044445</v>
       </c>
       <c r="R4">
-        <v>0.2920140058986122</v>
+        <v>1.37542376434</v>
       </c>
       <c r="S4">
-        <v>0.06812292212488807</v>
+        <v>0.01854211372781264</v>
       </c>
       <c r="T4">
-        <v>0.06812292212488807</v>
+        <v>0.01854211372781265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H5">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I5">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J5">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09730743117212</v>
+        <v>0.9476490000000001</v>
       </c>
       <c r="N5">
-        <v>1.09730743117212</v>
+        <v>2.842947</v>
       </c>
       <c r="O5">
-        <v>0.2895949173771297</v>
+        <v>0.1946834872317985</v>
       </c>
       <c r="P5">
-        <v>0.2895949173771297</v>
+        <v>0.1946834872317985</v>
       </c>
       <c r="Q5">
-        <v>0.357723285737652</v>
+        <v>0.20525445574</v>
       </c>
       <c r="R5">
-        <v>0.357723285737652</v>
+        <v>1.84729010166</v>
       </c>
       <c r="S5">
-        <v>0.08345200930199961</v>
+        <v>0.02490335272757085</v>
       </c>
       <c r="T5">
-        <v>0.08345200930199961</v>
+        <v>0.02490335272757085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.178818577498269</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H6">
-        <v>0.178818577498269</v>
+        <v>0.64978</v>
       </c>
       <c r="I6">
-        <v>0.1580664164148145</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J6">
-        <v>0.1580664164148145</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.2668186895293</v>
+        <v>0.245191</v>
       </c>
       <c r="N6">
-        <v>1.2668186895293</v>
+        <v>0.735573</v>
       </c>
       <c r="O6">
-        <v>0.3343313307685932</v>
+        <v>0.05037164490001245</v>
       </c>
       <c r="P6">
-        <v>0.3343313307685932</v>
+        <v>0.05037164490001245</v>
       </c>
       <c r="Q6">
-        <v>0.2265307160098507</v>
+        <v>0.05310673599333333</v>
       </c>
       <c r="R6">
-        <v>0.2265307160098507</v>
+        <v>0.4779606239400001</v>
       </c>
       <c r="S6">
-        <v>0.05284655534978754</v>
+        <v>0.006443396192710406</v>
       </c>
       <c r="T6">
-        <v>0.05284655534978754</v>
+        <v>0.006443396192710408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.178818577498269</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H7">
-        <v>0.178818577498269</v>
+        <v>0.64978</v>
       </c>
       <c r="I7">
-        <v>0.1580664164148145</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J7">
-        <v>0.1580664164148145</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.529239555083826</v>
+        <v>1.409595</v>
       </c>
       <c r="N7">
-        <v>0.529239555083826</v>
+        <v>4.228785</v>
       </c>
       <c r="O7">
-        <v>0.1396737877401368</v>
+        <v>0.2895849309021662</v>
       </c>
       <c r="P7">
-        <v>0.1396737877401368</v>
+        <v>0.2895849309021662</v>
       </c>
       <c r="Q7">
-        <v>0.09463786439590655</v>
+        <v>0.3053088797</v>
       </c>
       <c r="R7">
-        <v>0.09463786439590655</v>
+        <v>2.7477799173</v>
       </c>
       <c r="S7">
-        <v>0.02207773509516688</v>
+        <v>0.03704287292871119</v>
       </c>
       <c r="T7">
-        <v>0.02207773509516688</v>
+        <v>0.0370428729287112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H8">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I8">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J8">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.895745822132148</v>
+        <v>1.455462333333333</v>
       </c>
       <c r="N8">
-        <v>0.895745822132148</v>
+        <v>4.366387</v>
       </c>
       <c r="O8">
-        <v>0.2363999641141402</v>
+        <v>0.2990078421312781</v>
       </c>
       <c r="P8">
-        <v>0.2363999641141402</v>
+        <v>0.2990078421312781</v>
       </c>
       <c r="Q8">
-        <v>0.1601759937136882</v>
+        <v>0.5144452905694444</v>
       </c>
       <c r="R8">
-        <v>0.1601759937136882</v>
+        <v>4.630007615125</v>
       </c>
       <c r="S8">
-        <v>0.0373668951681129</v>
+        <v>0.06241722004961991</v>
       </c>
       <c r="T8">
-        <v>0.0373668951681129</v>
+        <v>0.06241722004961993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,557 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H9">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I9">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J9">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.09730743117212</v>
+        <v>0.1041576666666667</v>
       </c>
       <c r="N9">
-        <v>1.09730743117212</v>
+        <v>0.312473</v>
       </c>
       <c r="O9">
-        <v>0.2895949173771297</v>
+        <v>0.02139798360848153</v>
       </c>
       <c r="P9">
-        <v>0.2895949173771297</v>
+        <v>0.02139798360848154</v>
       </c>
       <c r="Q9">
-        <v>0.1962189539204782</v>
+        <v>0.03681539526388889</v>
       </c>
       <c r="R9">
-        <v>0.1962189539204782</v>
+        <v>0.331338557375</v>
       </c>
       <c r="S9">
-        <v>0.04577523080174719</v>
+        <v>0.004466781345896478</v>
       </c>
       <c r="T9">
-        <v>0.04577523080174719</v>
+        <v>0.004466781345896479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.170276258149697</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H10">
-        <v>0.170276258149697</v>
+        <v>1.060375</v>
       </c>
       <c r="I10">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J10">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.2668186895293</v>
+        <v>0.7055843333333334</v>
       </c>
       <c r="N10">
-        <v>1.2668186895293</v>
+        <v>2.116753</v>
       </c>
       <c r="O10">
-        <v>0.3343313307685932</v>
+        <v>0.1449541112262631</v>
       </c>
       <c r="P10">
-        <v>0.3343313307685932</v>
+        <v>0.1449541112262631</v>
       </c>
       <c r="Q10">
-        <v>0.215709146207152</v>
+        <v>0.2493946624861111</v>
       </c>
       <c r="R10">
-        <v>0.215709146207152</v>
+        <v>2.244551962375</v>
       </c>
       <c r="S10">
-        <v>0.05032202932690135</v>
+        <v>0.03025884737007808</v>
       </c>
       <c r="T10">
-        <v>0.05032202932690135</v>
+        <v>0.03025884737007809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.170276258149697</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H11">
-        <v>0.170276258149697</v>
+        <v>1.060375</v>
       </c>
       <c r="I11">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J11">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.529239555083826</v>
+        <v>0.9476490000000001</v>
       </c>
       <c r="N11">
-        <v>0.529239555083826</v>
+        <v>2.842947</v>
       </c>
       <c r="O11">
-        <v>0.1396737877401368</v>
+        <v>0.1946834872317985</v>
       </c>
       <c r="P11">
-        <v>0.1396737877401368</v>
+        <v>0.1946834872317985</v>
       </c>
       <c r="Q11">
-        <v>0.09011693110448434</v>
+        <v>0.3349544361250001</v>
       </c>
       <c r="R11">
-        <v>0.09011693110448434</v>
+        <v>3.014589925125</v>
       </c>
       <c r="S11">
-        <v>0.02102306244138226</v>
+        <v>0.04063974368016551</v>
       </c>
       <c r="T11">
-        <v>0.02102306244138226</v>
+        <v>0.04063974368016551</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.170276258149697</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H12">
-        <v>0.170276258149697</v>
+        <v>1.060375</v>
       </c>
       <c r="I12">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J12">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.895745822132148</v>
+        <v>0.245191</v>
       </c>
       <c r="N12">
-        <v>0.895745822132148</v>
+        <v>0.735573</v>
       </c>
       <c r="O12">
-        <v>0.2363999641141402</v>
+        <v>0.05037164490001245</v>
       </c>
       <c r="P12">
-        <v>0.2363999641141402</v>
+        <v>0.05037164490001245</v>
       </c>
       <c r="Q12">
-        <v>0.1525242468458862</v>
+        <v>0.08666480220833335</v>
       </c>
       <c r="R12">
-        <v>0.1525242468458862</v>
+        <v>0.7799832198750001</v>
       </c>
       <c r="S12">
-        <v>0.03558184600791743</v>
+        <v>0.01051496850910354</v>
       </c>
       <c r="T12">
-        <v>0.03558184600791743</v>
+        <v>0.01051496850910354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.170276258149697</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H13">
-        <v>0.170276258149697</v>
+        <v>1.060375</v>
       </c>
       <c r="I13">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J13">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.09730743117212</v>
+        <v>1.409595</v>
       </c>
       <c r="N13">
-        <v>1.09730743117212</v>
+        <v>4.228785</v>
       </c>
       <c r="O13">
-        <v>0.2895949173771297</v>
+        <v>0.2895849309021662</v>
       </c>
       <c r="P13">
-        <v>0.2895949173771297</v>
+        <v>0.2895849309021662</v>
       </c>
       <c r="Q13">
-        <v>0.1868454034198448</v>
+        <v>0.4982330993750001</v>
       </c>
       <c r="R13">
-        <v>0.1868454034198448</v>
+        <v>4.484097894375001</v>
       </c>
       <c r="S13">
-        <v>0.04358850811759599</v>
+        <v>0.06045020835018334</v>
       </c>
       <c r="T13">
-        <v>0.04358850811759599</v>
+        <v>0.06045020835018335</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.45619179945392</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H14">
-        <v>0.45619179945392</v>
+        <v>0.618649</v>
       </c>
       <c r="I14">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J14">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.2668186895293</v>
+        <v>1.455462333333333</v>
       </c>
       <c r="N14">
-        <v>1.2668186895293</v>
+        <v>4.366387</v>
       </c>
       <c r="O14">
-        <v>0.3343313307685932</v>
+        <v>0.2990078421312781</v>
       </c>
       <c r="P14">
-        <v>0.3343313307685932</v>
+        <v>0.2990078421312781</v>
       </c>
       <c r="Q14">
-        <v>0.5779122975582283</v>
+        <v>0.3001401056847777</v>
       </c>
       <c r="R14">
-        <v>0.5779122975582283</v>
+        <v>2.701260951163</v>
       </c>
       <c r="S14">
-        <v>0.1348191307482811</v>
+        <v>0.0364157498681856</v>
       </c>
       <c r="T14">
-        <v>0.1348191307482811</v>
+        <v>0.03641574986818561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.45619179945392</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H15">
-        <v>0.45619179945392</v>
+        <v>0.618649</v>
       </c>
       <c r="I15">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J15">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.529239555083826</v>
+        <v>0.1041576666666667</v>
       </c>
       <c r="N15">
-        <v>0.529239555083826</v>
+        <v>0.312473</v>
       </c>
       <c r="O15">
-        <v>0.1396737877401368</v>
+        <v>0.02139798360848153</v>
       </c>
       <c r="P15">
-        <v>0.1396737877401368</v>
+        <v>0.02139798360848154</v>
       </c>
       <c r="Q15">
-        <v>0.2414347449758826</v>
+        <v>0.02147901210855556</v>
       </c>
       <c r="R15">
-        <v>0.2414347449758826</v>
+        <v>0.193311108977</v>
       </c>
       <c r="S15">
-        <v>0.05632346393667425</v>
+        <v>0.002606030708812929</v>
       </c>
       <c r="T15">
-        <v>0.05632346393667425</v>
+        <v>0.00260603070881293</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.45619179945392</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H16">
-        <v>0.45619179945392</v>
+        <v>0.618649</v>
       </c>
       <c r="I16">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J16">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.895745822132148</v>
+        <v>0.7055843333333334</v>
       </c>
       <c r="N16">
-        <v>0.895745822132148</v>
+        <v>2.116753</v>
       </c>
       <c r="O16">
-        <v>0.2363999641141402</v>
+        <v>0.1449541112262631</v>
       </c>
       <c r="P16">
-        <v>0.2363999641141402</v>
+        <v>0.1449541112262631</v>
       </c>
       <c r="Q16">
-        <v>0.4086318984517956</v>
+        <v>0.1455030140774445</v>
       </c>
       <c r="R16">
-        <v>0.4086318984517956</v>
+        <v>1.309527126697</v>
       </c>
       <c r="S16">
-        <v>0.09532830081322186</v>
+        <v>0.01765375991196646</v>
       </c>
       <c r="T16">
-        <v>0.09532830081322186</v>
+        <v>0.01765375991196646</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.45619179945392</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H17">
-        <v>0.45619179945392</v>
+        <v>0.618649</v>
       </c>
       <c r="I17">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J17">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.09730743117212</v>
+        <v>0.9476490000000001</v>
       </c>
       <c r="N17">
-        <v>1.09730743117212</v>
+        <v>2.842947</v>
       </c>
       <c r="O17">
-        <v>0.2895949173771297</v>
+        <v>0.1946834872317985</v>
       </c>
       <c r="P17">
-        <v>0.2895949173771297</v>
+        <v>0.1946834872317985</v>
       </c>
       <c r="Q17">
-        <v>0.5005826515805679</v>
+        <v>0.195420702067</v>
       </c>
       <c r="R17">
-        <v>0.5005826515805679</v>
+        <v>1.758786318603</v>
       </c>
       <c r="S17">
-        <v>0.116779169155787</v>
+        <v>0.02371023155769488</v>
       </c>
       <c r="T17">
-        <v>0.116779169155787</v>
+        <v>0.02371023155769488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2062163333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.618649</v>
+      </c>
+      <c r="I18">
+        <v>0.1217886113241051</v>
+      </c>
+      <c r="J18">
+        <v>0.1217886113241051</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.245191</v>
+      </c>
+      <c r="N18">
+        <v>0.735573</v>
+      </c>
+      <c r="O18">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="P18">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="Q18">
+        <v>0.05056238898633334</v>
+      </c>
+      <c r="R18">
+        <v>0.455061500877</v>
+      </c>
+      <c r="S18">
+        <v>0.006134692682483457</v>
+      </c>
+      <c r="T18">
+        <v>0.006134692682483458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2062163333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.618649</v>
+      </c>
+      <c r="I19">
+        <v>0.1217886113241051</v>
+      </c>
+      <c r="J19">
+        <v>0.1217886113241051</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.409595</v>
+      </c>
+      <c r="N19">
+        <v>4.228785</v>
+      </c>
+      <c r="O19">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="P19">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="Q19">
+        <v>0.290681512385</v>
+      </c>
+      <c r="R19">
+        <v>2.616133611465</v>
+      </c>
+      <c r="S19">
+        <v>0.03526814659496175</v>
+      </c>
+      <c r="T19">
+        <v>0.03526814659496176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.186068</v>
+      </c>
+      <c r="H20">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J20">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.455462333333333</v>
+      </c>
+      <c r="N20">
+        <v>4.366387</v>
+      </c>
+      <c r="O20">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="P20">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="Q20">
+        <v>0.2708149654386666</v>
+      </c>
+      <c r="R20">
+        <v>2.437334688947999</v>
+      </c>
+      <c r="S20">
+        <v>0.0328577549457296</v>
+      </c>
+      <c r="T20">
+        <v>0.03285775494572962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.186068</v>
+      </c>
+      <c r="H21">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J21">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1041576666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.312473</v>
+      </c>
+      <c r="O21">
+        <v>0.02139798360848153</v>
+      </c>
+      <c r="P21">
+        <v>0.02139798360848154</v>
+      </c>
+      <c r="Q21">
+        <v>0.01938040872133333</v>
+      </c>
+      <c r="R21">
+        <v>0.174423678492</v>
+      </c>
+      <c r="S21">
+        <v>0.002351408901949591</v>
+      </c>
+      <c r="T21">
+        <v>0.002351408901949592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.186068</v>
+      </c>
+      <c r="H22">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J22">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.7055843333333334</v>
+      </c>
+      <c r="N22">
+        <v>2.116753</v>
+      </c>
+      <c r="O22">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="P22">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="Q22">
+        <v>0.1312866657346667</v>
+      </c>
+      <c r="R22">
+        <v>1.181579991612</v>
+      </c>
+      <c r="S22">
+        <v>0.0159289021689186</v>
+      </c>
+      <c r="T22">
+        <v>0.01592890216891861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.186068</v>
+      </c>
+      <c r="H23">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J23">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9476490000000001</v>
+      </c>
+      <c r="N23">
+        <v>2.842947</v>
+      </c>
+      <c r="O23">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="P23">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="Q23">
+        <v>0.176327154132</v>
+      </c>
+      <c r="R23">
+        <v>1.586944387188</v>
+      </c>
+      <c r="S23">
+        <v>0.02139362723682009</v>
+      </c>
+      <c r="T23">
+        <v>0.02139362723682009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.186068</v>
+      </c>
+      <c r="H24">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J24">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.245191</v>
+      </c>
+      <c r="N24">
+        <v>0.735573</v>
+      </c>
+      <c r="O24">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="P24">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="Q24">
+        <v>0.045622198988</v>
+      </c>
+      <c r="R24">
+        <v>0.4105997908919999</v>
+      </c>
+      <c r="S24">
+        <v>0.005535303530973128</v>
+      </c>
+      <c r="T24">
+        <v>0.005535303530973129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.186068</v>
+      </c>
+      <c r="H25">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J25">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.409595</v>
+      </c>
+      <c r="N25">
+        <v>4.228785</v>
+      </c>
+      <c r="O25">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="P25">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="Q25">
+        <v>0.26228052246</v>
+      </c>
+      <c r="R25">
+        <v>2.36052470214</v>
+      </c>
+      <c r="S25">
+        <v>0.0318222780638036</v>
+      </c>
+      <c r="T25">
+        <v>0.0318222780638036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.195893</v>
+      </c>
+      <c r="H26">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J26">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.455462333333333</v>
+      </c>
+      <c r="N26">
+        <v>4.366387</v>
+      </c>
+      <c r="O26">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="P26">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="Q26">
+        <v>0.2851148828636667</v>
+      </c>
+      <c r="R26">
+        <v>2.566033945773</v>
+      </c>
+      <c r="S26">
+        <v>0.03459275205615049</v>
+      </c>
+      <c r="T26">
+        <v>0.03459275205615051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.195893</v>
+      </c>
+      <c r="H27">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J27">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.1041576666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.312473</v>
+      </c>
+      <c r="O27">
+        <v>0.02139798360848153</v>
+      </c>
+      <c r="P27">
+        <v>0.02139798360848154</v>
+      </c>
+      <c r="Q27">
+        <v>0.02040375779633333</v>
+      </c>
+      <c r="R27">
+        <v>0.183633820167</v>
+      </c>
+      <c r="S27">
+        <v>0.002475570995709156</v>
+      </c>
+      <c r="T27">
+        <v>0.002475570995709157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.195893</v>
+      </c>
+      <c r="H28">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J28">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.7055843333333334</v>
+      </c>
+      <c r="N28">
+        <v>2.116753</v>
+      </c>
+      <c r="O28">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="P28">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="Q28">
+        <v>0.1382190318096667</v>
+      </c>
+      <c r="R28">
+        <v>1.243971286287</v>
+      </c>
+      <c r="S28">
+        <v>0.0167700003900508</v>
+      </c>
+      <c r="T28">
+        <v>0.0167700003900508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.195893</v>
+      </c>
+      <c r="H29">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J29">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.9476490000000001</v>
+      </c>
+      <c r="N29">
+        <v>2.842947</v>
+      </c>
+      <c r="O29">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="P29">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="Q29">
+        <v>0.185637805557</v>
+      </c>
+      <c r="R29">
+        <v>1.670740250013</v>
+      </c>
+      <c r="S29">
+        <v>0.02252328084518777</v>
+      </c>
+      <c r="T29">
+        <v>0.02252328084518778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.195893</v>
+      </c>
+      <c r="H30">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J30">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.245191</v>
+      </c>
+      <c r="N30">
+        <v>0.735573</v>
+      </c>
+      <c r="O30">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="P30">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="Q30">
+        <v>0.048031200563</v>
+      </c>
+      <c r="R30">
+        <v>0.4322808050670001</v>
+      </c>
+      <c r="S30">
+        <v>0.005827585692289482</v>
+      </c>
+      <c r="T30">
+        <v>0.005827585692289482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.195893</v>
+      </c>
+      <c r="H31">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J31">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.409595</v>
+      </c>
+      <c r="N31">
+        <v>4.228785</v>
+      </c>
+      <c r="O31">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="P31">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="Q31">
+        <v>0.276129793335</v>
+      </c>
+      <c r="R31">
+        <v>2.485168140015</v>
+      </c>
+      <c r="S31">
+        <v>0.03350259860240707</v>
+      </c>
+      <c r="T31">
+        <v>0.03350259860240708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H32">
+        <v>1.605008</v>
+      </c>
+      <c r="I32">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J32">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.455462333333333</v>
+      </c>
+      <c r="N32">
+        <v>4.366387</v>
+      </c>
+      <c r="O32">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="P32">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="Q32">
+        <v>0.7786762295662221</v>
+      </c>
+      <c r="R32">
+        <v>7.008086066095998</v>
+      </c>
+      <c r="S32">
+        <v>0.09447614053273637</v>
+      </c>
+      <c r="T32">
+        <v>0.09447614053273641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H33">
+        <v>1.605008</v>
+      </c>
+      <c r="I33">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J33">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1041576666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.312473</v>
+      </c>
+      <c r="O33">
+        <v>0.02139798360848153</v>
+      </c>
+      <c r="P33">
+        <v>0.02139798360848154</v>
+      </c>
+      <c r="Q33">
+        <v>0.05572462942044444</v>
+      </c>
+      <c r="R33">
+        <v>0.501521664784</v>
+      </c>
+      <c r="S33">
+        <v>0.006761023029036532</v>
+      </c>
+      <c r="T33">
+        <v>0.006761023029036535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H34">
+        <v>1.605008</v>
+      </c>
+      <c r="I34">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J34">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.7055843333333334</v>
+      </c>
+      <c r="N34">
+        <v>2.116753</v>
+      </c>
+      <c r="O34">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="P34">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="Q34">
+        <v>0.3774894998915556</v>
+      </c>
+      <c r="R34">
+        <v>3.397405499023999</v>
+      </c>
+      <c r="S34">
+        <v>0.04580048765743654</v>
+      </c>
+      <c r="T34">
+        <v>0.04580048765743655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H35">
+        <v>1.605008</v>
+      </c>
+      <c r="I35">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J35">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.9476490000000001</v>
+      </c>
+      <c r="N35">
+        <v>2.842947</v>
+      </c>
+      <c r="O35">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="P35">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="Q35">
+        <v>0.506994742064</v>
+      </c>
+      <c r="R35">
+        <v>4.562952678576</v>
+      </c>
+      <c r="S35">
+        <v>0.06151325118435937</v>
+      </c>
+      <c r="T35">
+        <v>0.06151325118435938</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H36">
+        <v>1.605008</v>
+      </c>
+      <c r="I36">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J36">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.245191</v>
+      </c>
+      <c r="N36">
+        <v>0.735573</v>
+      </c>
+      <c r="O36">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="P36">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="Q36">
+        <v>0.1311778388426667</v>
+      </c>
+      <c r="R36">
+        <v>1.180600549584</v>
+      </c>
+      <c r="S36">
+        <v>0.01591569829245243</v>
+      </c>
+      <c r="T36">
+        <v>0.01591569829245244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H37">
+        <v>1.605008</v>
+      </c>
+      <c r="I37">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J37">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.409595</v>
+      </c>
+      <c r="N37">
+        <v>4.228785</v>
+      </c>
+      <c r="O37">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="P37">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="Q37">
+        <v>0.75413708392</v>
+      </c>
+      <c r="R37">
+        <v>6.787233755279999</v>
+      </c>
+      <c r="S37">
+        <v>0.0914988263620993</v>
+      </c>
+      <c r="T37">
+        <v>0.09149882636209931</v>
       </c>
     </row>
   </sheetData>
